--- a/Cuphead/컵헤드.xlsx
+++ b/Cuphead/컵헤드.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sj\Desktop\Cuphead\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sj\Documents\DirectX_LSJ\Cuphead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA498871-CDD2-4368-86F7-B56BD1908E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A85CA1D-0F42-4CD5-9D2F-7EEAD37F87B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE101785-86B7-4699-9230-330B810340E8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>맵</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,10 +400,6 @@
   </si>
   <si>
     <t>런앤건 스테이지</t>
-  </si>
-  <si>
-    <t>패턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2014,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C2672F-31DC-47A2-8B20-09A394446C1B}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2036,9 +2032,6 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2155,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -2243,35 +2236,35 @@
     <row r="24" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
